--- a/jpcore-r4/feature/swg2-身体所見サンプル/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg2-身体所見サンプル/StructureDefinition-jp-medicationrequest.xlsx
@@ -2673,7 +2673,7 @@
     <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/CodeSystem/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>
